--- a/nscore.xlsx
+++ b/nscore.xlsx
@@ -12,10 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="18495" windowHeight="8085"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="nscore" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="nscore" localSheetId="0">Sheet1!$A$1:$I$17</definedName>
+    <definedName name="nscore" localSheetId="0">nscore!$A$1:$I$17</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>4 35</t>
   </si>
@@ -122,19 +122,35 @@
   </si>
   <si>
     <t>7 0.91093</t>
+  </si>
+  <si>
+    <t>Nscore</t>
+  </si>
+  <si>
+    <t>Cases</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF123654"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -157,8 +173,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:C49"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,542 +477,554 @@
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>12</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>-3.4643600000000001</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>13</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
+        <v>-3.4643600000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>-3.1573500000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>14</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>7</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>-2.7569599999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>15</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>-2.52197</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>16</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>-2.4231699999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>17</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>-2.3435999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>18</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>10</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>-2.2183999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>19</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>16</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>-2.0503999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>20</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>24</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>-1.8695999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>21</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>31</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>-1.6916</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>22</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>26</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>-1.5507</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>23</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>29</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>-1.4390000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>24</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>35</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>-1.3282</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>25</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>56</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>-1.1942999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>26</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>57</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>-1.0529999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>65</v>
-      </c>
-      <c r="C16">
-        <v>-0.92100000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C17">
-        <v>-0.79149999999999998</v>
+        <v>-0.92100000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C18">
-        <v>-0.67825000000000002</v>
+        <v>-0.79149999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19">
-        <v>-0.58016000000000001</v>
+        <v>-0.67825000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="C20">
-        <v>-0.46725</v>
+        <v>-0.58016000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C21">
-        <v>-0.34799000000000002</v>
+        <v>-0.46725</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C22">
-        <v>-0.24648999999999999</v>
+        <v>-0.34799000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>33</v>
+      </c>
+      <c r="B23">
+        <v>68</v>
+      </c>
+      <c r="C23">
+        <v>-0.24648999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>34</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>76</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>-0.14882000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24">
-        <v>6</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26">
         <v>7</v>
       </c>
-      <c r="B26">
+      <c r="C26" t="s">
         <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B27">
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B28">
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B29">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>23</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>3</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>46</v>
-      </c>
-      <c r="B35">
-        <v>67</v>
-      </c>
-      <c r="C35">
-        <v>1.02119</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="C36">
-        <v>1.1328100000000001</v>
+        <v>1.02119</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C37">
-        <v>1.23461</v>
+        <v>1.1328100000000001</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
+        <v>48</v>
+      </c>
+      <c r="B38">
         <v>49</v>
       </c>
-      <c r="B38">
-        <v>40</v>
-      </c>
       <c r="C38">
-        <v>1.37297</v>
+        <v>1.23461</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C39">
-        <v>1.4915799999999999</v>
+        <v>1.37297</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
+        <v>50</v>
+      </c>
+      <c r="B40">
+        <v>24</v>
+      </c>
+      <c r="C40">
+        <v>1.4915799999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>51</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>27</v>
       </c>
-      <c r="C40">
+      <c r="C41">
         <v>1.6038300000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>2</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>3</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>53</v>
-      </c>
-      <c r="B42">
-        <v>20</v>
-      </c>
-      <c r="C42">
-        <v>1.8399000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C43">
-        <v>1.98437</v>
+        <v>1.8399000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C44">
-        <v>2.1269999999999998</v>
+        <v>1.98437</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C45">
-        <v>2.2855400000000001</v>
+        <v>2.1269999999999998</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C46">
-        <v>2.4626199999999998</v>
+        <v>2.2855400000000001</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C47">
-        <v>2.6113900000000001</v>
+        <v>2.4626199999999998</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C48">
-        <v>2.8219599999999998</v>
+        <v>2.6113900000000001</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
+        <v>59</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>2.8219599999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>60</v>
       </c>
-      <c r="B49">
+      <c r="B50">
         <v>2</v>
       </c>
-      <c r="C49">
+      <c r="C50">
         <v>3.27393</v>
       </c>
     </row>
